--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3B548-C595-4F8C-896E-7B0BEC23449F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED2F647-DBC6-44DE-B515-115B36EB479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulLevelPass" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,6 +1369,206 @@
         <v>9033</v>
       </c>
       <c r="F42" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>410</v>
+      </c>
+      <c r="C43">
+        <v>9033</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>9033</v>
+      </c>
+      <c r="F43" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>420</v>
+      </c>
+      <c r="C44">
+        <v>9033</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>9033</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>430</v>
+      </c>
+      <c r="C45">
+        <v>9033</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>9033</v>
+      </c>
+      <c r="F45" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>440</v>
+      </c>
+      <c r="C46">
+        <v>9033</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>9033</v>
+      </c>
+      <c r="F46" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4">
+        <v>450</v>
+      </c>
+      <c r="C47">
+        <v>9033</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>9033</v>
+      </c>
+      <c r="F47" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="4">
+        <v>460</v>
+      </c>
+      <c r="C48">
+        <v>9033</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>9033</v>
+      </c>
+      <c r="F48" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4">
+        <v>470</v>
+      </c>
+      <c r="C49">
+        <v>9033</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>9033</v>
+      </c>
+      <c r="F49" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="4">
+        <v>480</v>
+      </c>
+      <c r="C50">
+        <v>9033</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>9033</v>
+      </c>
+      <c r="F50" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="4">
+        <v>490</v>
+      </c>
+      <c r="C51">
+        <v>9033</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>9033</v>
+      </c>
+      <c r="F51" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="4">
+        <v>500</v>
+      </c>
+      <c r="C52">
+        <v>9033</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>9033</v>
+      </c>
+      <c r="F52" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1400,7 +1600,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>328</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1409,7 +1609,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1418,7 +1618,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>246</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED2F647-DBC6-44DE-B515-115B36EB479A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A5FD0-EE73-4EB0-B50F-B802CD0CC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B44:B45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,6 +1569,206 @@
         <v>9033</v>
       </c>
       <c r="F52" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
+        <v>510</v>
+      </c>
+      <c r="C53">
+        <v>9033</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>9033</v>
+      </c>
+      <c r="F53" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <v>520</v>
+      </c>
+      <c r="C54">
+        <v>9033</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>9033</v>
+      </c>
+      <c r="F54" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <v>530</v>
+      </c>
+      <c r="C55">
+        <v>9033</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>9033</v>
+      </c>
+      <c r="F55" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <v>540</v>
+      </c>
+      <c r="C56">
+        <v>9033</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>9033</v>
+      </c>
+      <c r="F56" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4">
+        <v>550</v>
+      </c>
+      <c r="C57">
+        <v>9033</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>9033</v>
+      </c>
+      <c r="F57" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <v>560</v>
+      </c>
+      <c r="C58">
+        <v>9033</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>9033</v>
+      </c>
+      <c r="F58" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <v>570</v>
+      </c>
+      <c r="C59">
+        <v>9033</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>9033</v>
+      </c>
+      <c r="F59" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>580</v>
+      </c>
+      <c r="C60">
+        <v>9033</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>9033</v>
+      </c>
+      <c r="F60" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4">
+        <v>590</v>
+      </c>
+      <c r="C61">
+        <v>9033</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>9033</v>
+      </c>
+      <c r="F61" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4">
+        <v>600</v>
+      </c>
+      <c r="C62">
+        <v>9033</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>9033</v>
+      </c>
+      <c r="F62" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1600,7 +1800,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>408</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1609,7 +1809,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1618,7 +1818,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>306</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303A5FD0-EE73-4EB0-B50F-B802CD0CC6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFABD-6CB7-4237-BAD6-64FA8EDE53BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulLevelPass" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1769,6 +1769,206 @@
         <v>9033</v>
       </c>
       <c r="F62" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4">
+        <v>610</v>
+      </c>
+      <c r="C63">
+        <v>9033</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>9033</v>
+      </c>
+      <c r="F63" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4">
+        <v>620</v>
+      </c>
+      <c r="C64">
+        <v>9033</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>9033</v>
+      </c>
+      <c r="F64" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4">
+        <v>630</v>
+      </c>
+      <c r="C65">
+        <v>9033</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>9033</v>
+      </c>
+      <c r="F65" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4">
+        <v>640</v>
+      </c>
+      <c r="C66">
+        <v>9033</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>9033</v>
+      </c>
+      <c r="F66" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4">
+        <v>650</v>
+      </c>
+      <c r="C67">
+        <v>9033</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>9033</v>
+      </c>
+      <c r="F67" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4">
+        <v>660</v>
+      </c>
+      <c r="C68">
+        <v>9033</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>9033</v>
+      </c>
+      <c r="F68" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4">
+        <v>670</v>
+      </c>
+      <c r="C69">
+        <v>9033</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>9033</v>
+      </c>
+      <c r="F69" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4">
+        <v>680</v>
+      </c>
+      <c r="C70">
+        <v>9033</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>9033</v>
+      </c>
+      <c r="F70" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4">
+        <v>690</v>
+      </c>
+      <c r="C71">
+        <v>9033</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>9033</v>
+      </c>
+      <c r="F71" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4">
+        <v>700</v>
+      </c>
+      <c r="C72">
+        <v>9033</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>9033</v>
+      </c>
+      <c r="F72" s="8">
         <v>6</v>
       </c>
     </row>
@@ -1800,7 +2000,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>488</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -1809,7 +2009,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -1818,7 +2018,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>366</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BAFABD-6CB7-4237-BAD6-64FA8EDE53BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7466A5-0477-485D-A10A-D099210DCE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulLevelPass" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1969,6 +1969,406 @@
         <v>9033</v>
       </c>
       <c r="F72" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4">
+        <v>710</v>
+      </c>
+      <c r="C73">
+        <v>9033</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>9033</v>
+      </c>
+      <c r="F73" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4">
+        <v>720</v>
+      </c>
+      <c r="C74">
+        <v>9033</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>9033</v>
+      </c>
+      <c r="F74" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4">
+        <v>730</v>
+      </c>
+      <c r="C75">
+        <v>9033</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>9033</v>
+      </c>
+      <c r="F75" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4">
+        <v>740</v>
+      </c>
+      <c r="C76">
+        <v>9033</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>9033</v>
+      </c>
+      <c r="F76" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4">
+        <v>750</v>
+      </c>
+      <c r="C77">
+        <v>9033</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>9033</v>
+      </c>
+      <c r="F77" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4">
+        <v>760</v>
+      </c>
+      <c r="C78">
+        <v>9033</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>9033</v>
+      </c>
+      <c r="F78" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4">
+        <v>770</v>
+      </c>
+      <c r="C79">
+        <v>9033</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>9033</v>
+      </c>
+      <c r="F79" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4">
+        <v>780</v>
+      </c>
+      <c r="C80">
+        <v>9033</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>9033</v>
+      </c>
+      <c r="F80" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4">
+        <v>790</v>
+      </c>
+      <c r="C81">
+        <v>9033</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>9033</v>
+      </c>
+      <c r="F81" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4">
+        <v>800</v>
+      </c>
+      <c r="C82">
+        <v>9033</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>9033</v>
+      </c>
+      <c r="F82" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4">
+        <v>810</v>
+      </c>
+      <c r="C83">
+        <v>9033</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>9033</v>
+      </c>
+      <c r="F83" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="4">
+        <v>820</v>
+      </c>
+      <c r="C84">
+        <v>9033</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>9033</v>
+      </c>
+      <c r="F84" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="4">
+        <v>830</v>
+      </c>
+      <c r="C85">
+        <v>9033</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>9033</v>
+      </c>
+      <c r="F85" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4">
+        <v>840</v>
+      </c>
+      <c r="C86">
+        <v>9033</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>9033</v>
+      </c>
+      <c r="F86" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4">
+        <v>850</v>
+      </c>
+      <c r="C87">
+        <v>9033</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>9033</v>
+      </c>
+      <c r="F87" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4">
+        <v>860</v>
+      </c>
+      <c r="C88">
+        <v>9033</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>9033</v>
+      </c>
+      <c r="F88" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4">
+        <v>870</v>
+      </c>
+      <c r="C89">
+        <v>9033</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>9033</v>
+      </c>
+      <c r="F89" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4">
+        <v>880</v>
+      </c>
+      <c r="C90">
+        <v>9033</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>9033</v>
+      </c>
+      <c r="F90" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4">
+        <v>890</v>
+      </c>
+      <c r="C91">
+        <v>9033</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>9033</v>
+      </c>
+      <c r="F91" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4">
+        <v>900</v>
+      </c>
+      <c r="C92">
+        <v>9033</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>9033</v>
+      </c>
+      <c r="F92" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2000,7 +2400,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>568</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2009,7 +2409,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2018,7 +2418,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>426</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7466A5-0477-485D-A10A-D099210DCE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7322C-90E0-415A-8332-FFC7974F356E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -215,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2369,6 +2369,406 @@
         <v>9033</v>
       </c>
       <c r="F92" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4">
+        <v>910</v>
+      </c>
+      <c r="C93">
+        <v>9033</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>9033</v>
+      </c>
+      <c r="F93" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4">
+        <v>920</v>
+      </c>
+      <c r="C94">
+        <v>9033</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>9033</v>
+      </c>
+      <c r="F94" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4">
+        <v>930</v>
+      </c>
+      <c r="C95">
+        <v>9033</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>9033</v>
+      </c>
+      <c r="F95" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4">
+        <v>940</v>
+      </c>
+      <c r="C96">
+        <v>9033</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>9033</v>
+      </c>
+      <c r="F96" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4">
+        <v>950</v>
+      </c>
+      <c r="C97">
+        <v>9033</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>9033</v>
+      </c>
+      <c r="F97" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4">
+        <v>960</v>
+      </c>
+      <c r="C98">
+        <v>9033</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>9033</v>
+      </c>
+      <c r="F98" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="4">
+        <v>970</v>
+      </c>
+      <c r="C99">
+        <v>9033</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>9033</v>
+      </c>
+      <c r="F99" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="4">
+        <v>980</v>
+      </c>
+      <c r="C100">
+        <v>9033</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100">
+        <v>9033</v>
+      </c>
+      <c r="F100" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="4">
+        <v>990</v>
+      </c>
+      <c r="C101">
+        <v>9033</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>9033</v>
+      </c>
+      <c r="F101" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C102">
+        <v>9033</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>9033</v>
+      </c>
+      <c r="F102" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1010</v>
+      </c>
+      <c r="C103">
+        <v>9033</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>9033</v>
+      </c>
+      <c r="F103" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="4">
+        <v>1020</v>
+      </c>
+      <c r="C104">
+        <v>9033</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>9033</v>
+      </c>
+      <c r="F104" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C105">
+        <v>9033</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>9033</v>
+      </c>
+      <c r="F105" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4">
+        <v>1040</v>
+      </c>
+      <c r="C106">
+        <v>9033</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106">
+        <v>9033</v>
+      </c>
+      <c r="F106" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1050</v>
+      </c>
+      <c r="C107">
+        <v>9033</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>9033</v>
+      </c>
+      <c r="F107" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4">
+        <v>1060</v>
+      </c>
+      <c r="C108">
+        <v>9033</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108">
+        <v>9033</v>
+      </c>
+      <c r="F108" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1070</v>
+      </c>
+      <c r="C109">
+        <v>9033</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <v>9033</v>
+      </c>
+      <c r="F109" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1080</v>
+      </c>
+      <c r="C110">
+        <v>9033</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>9033</v>
+      </c>
+      <c r="F110" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4">
+        <v>1090</v>
+      </c>
+      <c r="C111">
+        <v>9033</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>9033</v>
+      </c>
+      <c r="F111" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C112">
+        <v>9033</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>9033</v>
+      </c>
+      <c r="F112" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2400,7 +2800,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>728</v>
+        <v>888</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2409,7 +2809,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2418,7 +2818,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>546</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C7322C-90E0-415A-8332-FFC7974F356E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7277D07-9384-4784-A071-1E04DFCF1934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2769,6 +2769,406 @@
         <v>9033</v>
       </c>
       <c r="F112" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4">
+        <v>1110</v>
+      </c>
+      <c r="C113">
+        <v>9033</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>9033</v>
+      </c>
+      <c r="F113" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1120</v>
+      </c>
+      <c r="C114">
+        <v>9033</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>9033</v>
+      </c>
+      <c r="F114" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4">
+        <v>1130</v>
+      </c>
+      <c r="C115">
+        <v>9033</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>9033</v>
+      </c>
+      <c r="F115" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="4">
+        <v>1140</v>
+      </c>
+      <c r="C116">
+        <v>9033</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>9033</v>
+      </c>
+      <c r="F116" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C117">
+        <v>9033</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>9033</v>
+      </c>
+      <c r="F117" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4">
+        <v>1160</v>
+      </c>
+      <c r="C118">
+        <v>9033</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>9033</v>
+      </c>
+      <c r="F118" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="4">
+        <v>1170</v>
+      </c>
+      <c r="C119">
+        <v>9033</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>9033</v>
+      </c>
+      <c r="F119" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="4">
+        <v>1180</v>
+      </c>
+      <c r="C120">
+        <v>9033</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>9033</v>
+      </c>
+      <c r="F120" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1190</v>
+      </c>
+      <c r="C121">
+        <v>9033</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>9033</v>
+      </c>
+      <c r="F121" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C122">
+        <v>9033</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>9033</v>
+      </c>
+      <c r="F122" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="4">
+        <v>1210</v>
+      </c>
+      <c r="C123">
+        <v>9033</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>9033</v>
+      </c>
+      <c r="F123" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1220</v>
+      </c>
+      <c r="C124">
+        <v>9033</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>9033</v>
+      </c>
+      <c r="F124" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="4">
+        <v>1230</v>
+      </c>
+      <c r="C125">
+        <v>9033</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>9033</v>
+      </c>
+      <c r="F125" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="4">
+        <v>1240</v>
+      </c>
+      <c r="C126">
+        <v>9033</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>9033</v>
+      </c>
+      <c r="F126" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="4">
+        <v>1250</v>
+      </c>
+      <c r="C127">
+        <v>9033</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>9033</v>
+      </c>
+      <c r="F127" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1260</v>
+      </c>
+      <c r="C128">
+        <v>9033</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>9033</v>
+      </c>
+      <c r="F128" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="4">
+        <v>1270</v>
+      </c>
+      <c r="C129">
+        <v>9033</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>9033</v>
+      </c>
+      <c r="F129" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="4">
+        <v>1280</v>
+      </c>
+      <c r="C130">
+        <v>9033</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>9033</v>
+      </c>
+      <c r="F130" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1290</v>
+      </c>
+      <c r="C131">
+        <v>9033</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>9033</v>
+      </c>
+      <c r="F131" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C132">
+        <v>9033</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>9033</v>
+      </c>
+      <c r="F132" s="8">
         <v>6</v>
       </c>
     </row>
@@ -2800,7 +3200,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>888</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -2809,7 +3209,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -2818,7 +3218,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>666</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7277D07-9384-4784-A071-1E04DFCF1934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C45BA-4A9D-4866-A2C1-DB1BF438B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulLevelPass" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3169,6 +3169,206 @@
         <v>9033</v>
       </c>
       <c r="F132" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="4">
+        <v>1310</v>
+      </c>
+      <c r="C133">
+        <v>9033</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>9033</v>
+      </c>
+      <c r="F133" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="4">
+        <v>1320</v>
+      </c>
+      <c r="C134">
+        <v>9033</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>9033</v>
+      </c>
+      <c r="F134" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1330</v>
+      </c>
+      <c r="C135">
+        <v>9033</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>9033</v>
+      </c>
+      <c r="F135" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="4">
+        <v>1340</v>
+      </c>
+      <c r="C136">
+        <v>9033</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>9033</v>
+      </c>
+      <c r="F136" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C137">
+        <v>9033</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>9033</v>
+      </c>
+      <c r="F137" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1360</v>
+      </c>
+      <c r="C138">
+        <v>9033</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>9033</v>
+      </c>
+      <c r="F138" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="4">
+        <v>1370</v>
+      </c>
+      <c r="C139">
+        <v>9033</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>9033</v>
+      </c>
+      <c r="F139" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="4">
+        <v>1380</v>
+      </c>
+      <c r="C140">
+        <v>9033</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>9033</v>
+      </c>
+      <c r="F140" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="4">
+        <v>1390</v>
+      </c>
+      <c r="C141">
+        <v>9033</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>9033</v>
+      </c>
+      <c r="F141" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1400</v>
+      </c>
+      <c r="C142">
+        <v>9033</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>9033</v>
+      </c>
+      <c r="F142" s="8">
         <v>6</v>
       </c>
     </row>
@@ -3200,7 +3400,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>1048</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -3209,7 +3409,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3218,7 +3418,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>786</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/DosulLevelPass.xlsx
+++ b/Assets/06.Table/DosulLevelPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61C45BA-4A9D-4866-A2C1-DB1BF438B79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949043C8-0C95-4A4B-992D-73DCD0191700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DosulLevelPass" sheetId="1" r:id="rId1"/>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3369,6 +3369,606 @@
         <v>9033</v>
       </c>
       <c r="F142" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="4">
+        <v>1410</v>
+      </c>
+      <c r="C143">
+        <v>9033</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>9033</v>
+      </c>
+      <c r="F143" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="4">
+        <v>1420</v>
+      </c>
+      <c r="C144">
+        <v>9033</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>9033</v>
+      </c>
+      <c r="F144" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1430</v>
+      </c>
+      <c r="C145">
+        <v>9033</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>9033</v>
+      </c>
+      <c r="F145" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="4">
+        <v>1440</v>
+      </c>
+      <c r="C146">
+        <v>9033</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>9033</v>
+      </c>
+      <c r="F146" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="4">
+        <v>1450</v>
+      </c>
+      <c r="C147">
+        <v>9033</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>9033</v>
+      </c>
+      <c r="F147" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="4">
+        <v>1460</v>
+      </c>
+      <c r="C148">
+        <v>9033</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>9033</v>
+      </c>
+      <c r="F148" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1470</v>
+      </c>
+      <c r="C149">
+        <v>9033</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>9033</v>
+      </c>
+      <c r="F149" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="4">
+        <v>1480</v>
+      </c>
+      <c r="C150">
+        <v>9033</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>9033</v>
+      </c>
+      <c r="F150" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="4">
+        <v>1490</v>
+      </c>
+      <c r="C151">
+        <v>9033</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>9033</v>
+      </c>
+      <c r="F151" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C152">
+        <v>9033</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>9033</v>
+      </c>
+      <c r="F152" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="4">
+        <v>1510</v>
+      </c>
+      <c r="C153">
+        <v>9033</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>9033</v>
+      </c>
+      <c r="F153" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="4">
+        <v>1520</v>
+      </c>
+      <c r="C154">
+        <v>9033</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>9033</v>
+      </c>
+      <c r="F154" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1530</v>
+      </c>
+      <c r="C155">
+        <v>9033</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>9033</v>
+      </c>
+      <c r="F155" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1540</v>
+      </c>
+      <c r="C156">
+        <v>9033</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>9033</v>
+      </c>
+      <c r="F156" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="4">
+        <v>1550</v>
+      </c>
+      <c r="C157">
+        <v>9033</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>9033</v>
+      </c>
+      <c r="F157" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="4">
+        <v>1560</v>
+      </c>
+      <c r="C158">
+        <v>9033</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>9033</v>
+      </c>
+      <c r="F158" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1570</v>
+      </c>
+      <c r="C159">
+        <v>9033</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>9033</v>
+      </c>
+      <c r="F159" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="4">
+        <v>1580</v>
+      </c>
+      <c r="C160">
+        <v>9033</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>9033</v>
+      </c>
+      <c r="F160" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="4">
+        <v>1590</v>
+      </c>
+      <c r="C161">
+        <v>9033</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>9033</v>
+      </c>
+      <c r="F161" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="4">
+        <v>1600</v>
+      </c>
+      <c r="C162">
+        <v>9033</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>9033</v>
+      </c>
+      <c r="F162" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1610</v>
+      </c>
+      <c r="C163">
+        <v>9033</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>9033</v>
+      </c>
+      <c r="F163" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="4">
+        <v>1620</v>
+      </c>
+      <c r="C164">
+        <v>9033</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>9033</v>
+      </c>
+      <c r="F164" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="4">
+        <v>1630</v>
+      </c>
+      <c r="C165">
+        <v>9033</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>9033</v>
+      </c>
+      <c r="F165" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1640</v>
+      </c>
+      <c r="C166">
+        <v>9033</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>9033</v>
+      </c>
+      <c r="F166" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="4">
+        <v>1650</v>
+      </c>
+      <c r="C167">
+        <v>9033</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>9033</v>
+      </c>
+      <c r="F167" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="4">
+        <v>1660</v>
+      </c>
+      <c r="C168">
+        <v>9033</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>9033</v>
+      </c>
+      <c r="F168" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="4">
+        <v>1670</v>
+      </c>
+      <c r="C169">
+        <v>9033</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>9033</v>
+      </c>
+      <c r="F169" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1680</v>
+      </c>
+      <c r="C170">
+        <v>9033</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>9033</v>
+      </c>
+      <c r="F170" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="4">
+        <v>1690</v>
+      </c>
+      <c r="C171">
+        <v>9033</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>9033</v>
+      </c>
+      <c r="F171" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C172">
+        <v>9033</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>9033</v>
+      </c>
+      <c r="F172" s="8">
         <v>6</v>
       </c>
     </row>
@@ -3400,7 +4000,7 @@
       </c>
       <c r="D3" s="7">
         <f>C5+C6</f>
-        <v>1128</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
@@ -3409,7 +4009,7 @@
       </c>
       <c r="C5" s="5">
         <f>SUM(DosulLevelPass!D:D)</f>
-        <v>282</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3418,7 +4018,7 @@
       </c>
       <c r="C6" s="7">
         <f>SUM(DosulLevelPass!F:F)</f>
-        <v>846</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
